--- a/tests/output/05-table-features.xlsx
+++ b/tests/output/05-table-features.xlsx
@@ -7,14 +7,13 @@
     <sheet sheetId="1" name="AutoWidthAll" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="AutoWidthBody" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="MergeSameValues" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Border" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>短</t>
   </si>
@@ -56,18 +55,6 @@
   </si>
   <si>
     <t>テレビ</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>値</t>
-  </si>
-  <si>
-    <t>項目A</t>
-  </si>
-  <si>
-    <t>項目B</t>
   </si>
 </sst>
 </file>
@@ -545,39 +532,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
 </file>
--- a/tests/output/05-table-features.xlsx
+++ b/tests/output/05-table-features.xlsx
@@ -6,14 +6,13 @@
   <sheets>
     <sheet sheetId="1" name="AutoWidthAll" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="AutoWidthBody" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="MergeSameValues" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>短</t>
   </si>
@@ -34,27 +33,6 @@
   </si>
   <si>
     <t>ボディのテキストが長い場合</t>
-  </si>
-  <si>
-    <t>カテゴリ</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>食品</t>
-  </si>
-  <si>
-    <t>りんご</t>
-  </si>
-  <si>
-    <t>みかん</t>
-  </si>
-  <si>
-    <t>家電</t>
-  </si>
-  <si>
-    <t>テレビ</t>
   </si>
 </sst>
 </file>
@@ -489,47 +467,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
 </file>
--- a/tests/output/05-table-features.xlsx
+++ b/tests/output/05-table-features.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="AutoWidthAll" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="AutoWidthBody" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="AutoWidthFalse" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>短</t>
   </si>
@@ -33,6 +34,12 @@
   </si>
   <si>
     <t>ボディのテキストが長い場合</t>
+  </si>
+  <si>
+    <t>長いヘッダーテキスト</t>
+  </si>
+  <si>
+    <t>データ</t>
   </si>
 </sst>
 </file>
@@ -467,4 +474,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>